--- a/be-practitionerrole.xlsx
+++ b/be-practitionerrole.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -206,6 +206,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
@@ -328,6 +332,10 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
@@ -510,10 +518,6 @@
     <t>PractitionerRole.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -591,7 +595,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/CD-HCPARTY</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/CodeSystem/be-hcparty</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -856,10 +860,6 @@
     <t>More detailed availability information may be provided in associated Schedule/Slot resources.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>.effectiveTime</t>
   </si>
   <si>
@@ -901,7 +901,7 @@
     <t>The days of the week.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
   </si>
   <si>
     <t>PractitionerRole.availableTime.allDay</t>
@@ -1630,7 +1630,7 @@
         <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>40</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1670,16 +1670,16 @@
         <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1729,7 +1729,7 @@
         <v>40</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>41</v>
@@ -1741,7 +1741,7 @@
         <v>40</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>40</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1781,16 +1781,16 @@
         <v>40</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1816,13 +1816,13 @@
         <v>40</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>40</v>
@@ -1840,7 +1840,7 @@
         <v>40</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
@@ -1852,7 +1852,7 @@
         <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>40</v>
@@ -1869,11 +1869,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1892,16 +1892,16 @@
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1951,7 +1951,7 @@
         <v>40</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1963,13 +1963,13 @@
         <v>40</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>40</v>
@@ -1980,11 +1980,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2003,16 +2003,16 @@
         <v>40</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2062,7 +2062,7 @@
         <v>40</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>41</v>
@@ -2080,7 +2080,7 @@
         <v>40</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>40</v>
@@ -2091,11 +2091,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2114,16 +2114,16 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2173,7 +2173,7 @@
         <v>40</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -2185,13 +2185,13 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>40</v>
@@ -2202,11 +2202,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2225,19 +2225,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>40</v>
@@ -2286,7 +2286,7 @@
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -2298,13 +2298,13 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2338,17 +2338,17 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>40</v>
@@ -2397,7 +2397,7 @@
         <v>40</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2409,24 +2409,24 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2449,70 +2449,70 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2524,24 +2524,24 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2564,17 +2564,17 @@
         <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2623,7 +2623,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2635,24 +2635,24 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2675,13 +2675,13 @@
         <v>51</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2732,7 +2732,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2744,13 +2744,13 @@
         <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2784,13 +2784,13 @@
         <v>51</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2841,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2853,13 +2853,13 @@
         <v>40</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2893,19 +2893,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2930,29 +2930,29 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2964,16 +2964,16 @@
         <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>40</v>
@@ -3006,19 +3006,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3043,13 +3043,13 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3067,7 +3067,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3079,16 +3079,16 @@
         <v>40</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3119,13 +3119,13 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3176,7 +3176,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3194,7 +3194,7 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3205,11 +3205,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3228,16 +3228,16 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3275,19 +3275,19 @@
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3299,13 +3299,13 @@
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3316,7 +3316,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3339,19 +3339,19 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3400,7 +3400,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3412,13 +3412,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3452,13 +3452,13 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3509,7 +3509,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3527,7 +3527,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3538,11 +3538,11 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3561,16 +3561,16 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3608,19 +3608,19 @@
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3632,13 +3632,13 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3672,26 +3672,26 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>40</v>
@@ -3733,7 +3733,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3745,13 +3745,13 @@
         <v>40</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3762,7 +3762,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3785,16 +3785,16 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3844,7 +3844,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3856,13 +3856,13 @@
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3896,17 +3896,17 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -3955,7 +3955,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3967,13 +3967,13 @@
         <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4007,17 +4007,17 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4066,7 +4066,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4078,13 +4078,13 @@
         <v>40</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4118,19 +4118,19 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4191,13 +4191,13 @@
         <v>40</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4231,19 +4231,19 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4292,7 +4292,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4304,13 +4304,13 @@
         <v>40</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
@@ -4321,10 +4321,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>40</v>
@@ -4346,19 +4346,19 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4383,13 +4383,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4407,7 +4407,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4419,16 +4419,16 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
@@ -4436,7 +4436,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4459,13 +4459,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4516,7 +4516,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4534,7 +4534,7 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
@@ -4545,11 +4545,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4568,16 +4568,16 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4615,19 +4615,19 @@
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4639,13 +4639,13 @@
         <v>40</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4679,19 +4679,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4740,7 +4740,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4752,13 +4752,13 @@
         <v>40</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4792,13 +4792,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4849,7 +4849,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4867,7 +4867,7 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
@@ -4878,11 +4878,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4901,16 +4901,16 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -4948,19 +4948,19 @@
         <v>40</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4972,13 +4972,13 @@
         <v>40</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5012,26 +5012,26 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>40</v>
@@ -5073,7 +5073,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5085,13 +5085,13 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5125,16 +5125,16 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5184,7 +5184,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5196,13 +5196,13 @@
         <v>40</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
@@ -5213,7 +5213,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5236,17 +5236,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5295,7 +5295,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5307,13 +5307,13 @@
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5347,17 +5347,17 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5406,7 +5406,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5418,13 +5418,13 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5458,19 +5458,19 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5519,7 +5519,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5531,13 +5531,13 @@
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5571,19 +5571,19 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5632,7 +5632,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5644,13 +5644,13 @@
         <v>40</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5661,7 +5661,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5684,13 +5684,13 @@
         <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5717,29 +5717,29 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5751,16 +5751,16 @@
         <v>40</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
@@ -5768,10 +5768,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
@@ -5793,13 +5793,13 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5826,13 +5826,13 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -5850,7 +5850,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5862,16 +5862,16 @@
         <v>40</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5902,13 +5902,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5959,7 +5959,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5977,7 +5977,7 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
@@ -5988,11 +5988,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6011,16 +6011,16 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6058,19 +6058,19 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6082,13 +6082,13 @@
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
@@ -6099,7 +6099,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6122,19 +6122,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6159,13 +6159,13 @@
         <v>40</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>40</v>
@@ -6183,7 +6183,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6195,13 +6195,13 @@
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6212,7 +6212,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6235,13 +6235,13 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6292,7 +6292,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6310,7 +6310,7 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
@@ -6321,11 +6321,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6344,16 +6344,16 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6391,19 +6391,19 @@
         <v>40</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6415,13 +6415,13 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6432,7 +6432,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6455,26 +6455,26 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>40</v>
@@ -6516,7 +6516,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6528,13 +6528,13 @@
         <v>40</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6568,16 +6568,16 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6627,7 +6627,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6639,13 +6639,13 @@
         <v>40</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
@@ -6656,7 +6656,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6679,17 +6679,17 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6738,7 +6738,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6750,13 +6750,13 @@
         <v>40</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6790,17 +6790,17 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6849,7 +6849,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6861,13 +6861,13 @@
         <v>40</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6901,19 +6901,19 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -6962,7 +6962,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6974,13 +6974,13 @@
         <v>40</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7014,19 +7014,19 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7075,7 +7075,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7087,13 +7087,13 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7127,13 +7127,13 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7184,7 +7184,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7196,24 +7196,24 @@
         <v>40</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7236,13 +7236,13 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7293,7 +7293,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7305,13 +7305,13 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7345,17 +7345,17 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7404,7 +7404,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7416,13 +7416,13 @@
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7456,16 +7456,16 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7515,7 +7515,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7527,7 +7527,7 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>271</v>
+        <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>40</v>
@@ -7567,13 +7567,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7624,7 +7624,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7642,7 +7642,7 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7676,16 +7676,16 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7735,7 +7735,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7747,13 +7747,13 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7787,7 +7787,7 @@
         <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>277</v>
@@ -7796,10 +7796,10 @@
         <v>278</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7860,13 +7860,13 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -7900,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>281</v>
@@ -7969,7 +7969,7 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
@@ -8009,7 +8009,7 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>287</v>
@@ -8078,7 +8078,7 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>40</v>
@@ -8189,7 +8189,7 @@
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>40</v>
@@ -8300,7 +8300,7 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>40</v>
@@ -8340,7 +8340,7 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>298</v>
@@ -8409,7 +8409,7 @@
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>271</v>
+        <v>62</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>40</v>
@@ -8449,13 +8449,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8506,7 +8506,7 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8524,7 +8524,7 @@
         <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8558,16 +8558,16 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8617,7 +8617,7 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8629,13 +8629,13 @@
         <v>40</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8669,7 +8669,7 @@
         <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>277</v>
@@ -8678,10 +8678,10 @@
         <v>278</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
@@ -8742,13 +8742,13 @@
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8782,7 +8782,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>304</v>
@@ -8851,13 +8851,13 @@
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -8891,7 +8891,7 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>307</v>
@@ -8960,7 +8960,7 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>40</v>
@@ -9000,7 +9000,7 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>158</v>
+        <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>310</v>
@@ -9069,7 +9069,7 @@
         <v>40</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>40</v>
@@ -9180,13 +9180,13 @@
         <v>40</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
